--- a/public/uploads/${ID_ORDEN_SERVICIO} Orden Upgrade ${ID_ORDEN_SERVICIO_LETRAS} Datos ${CONCENTRADOR_NOD_CODIGO} - ${EXTREMO_NOD_CODIGO} ${ID_ORDEN_SERVICIO}.xlsx
+++ b/public/uploads/${ID_ORDEN_SERVICIO} Orden Upgrade ${ID_ORDEN_SERVICIO_LETRAS} Datos ${CONCENTRADOR_NOD_CODIGO} - ${EXTREMO_NOD_CODIGO} ${ID_ORDEN_SERVICIO}.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">CELULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">${ID_SERVICIO}</t>
+    <t xml:space="preserve">${ID_ORDEN_SERVICIO}</t>
   </si>
   <si>
     <t xml:space="preserve">${CONCENTRADOR_CIU_NOMBRE}</t>
@@ -216,11 +216,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,7 +248,7 @@
   <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,46 +302,46 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
